--- a/问题汇总.xlsx
+++ b/问题汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>下单后自动成为成员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,22 @@
   </si>
   <si>
     <t>用户联系的团长是哪个？团长or分销员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享接龙赚佣金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通用户，从哪里分享，只能通过团长/分享用户去分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销员分享，拿团长设置的商品分享佣金；能不能拿接龙佣金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不下单也能分享接龙活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -101,6 +117,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,34 +428,38 @@
   <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="45.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -444,198 +467,272 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
